--- a/report/table.xlsx
+++ b/report/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datda\Downloads\jit_intern\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF7689-1475-4C09-A738-BC6A20B06288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676A393-6D71-4C32-9088-CF65AA272048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{467341CC-2294-4426-9A34-4EE922FFC4A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>I_BTN_IN</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>20'b00010001000100010001</t>
+  </si>
+  <si>
+    <t>BIN_TO_BCD</t>
+  </si>
+  <si>
+    <t>DEBOUND</t>
+  </si>
+  <si>
+    <t>SEVEN_SEG_CONVERTER</t>
+  </si>
+  <si>
+    <t>I_VALUE</t>
+  </si>
+  <si>
+    <t>O_SEG_OUT</t>
+  </si>
+  <si>
+    <t>4'd6</t>
+  </si>
+  <si>
+    <t>~8'b01111101</t>
   </si>
 </sst>
 </file>
@@ -191,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -200,7 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,14 +555,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6381D0-5878-4727-8CCA-6C6684C286E9}">
-  <dimension ref="B3:CG32"/>
+  <dimension ref="B1:CG47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS31" sqref="AS31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:85" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" spans="2:85" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
@@ -842,15 +867,15 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
     </row>
     <row r="13" spans="2:85" x14ac:dyDescent="0.3">
       <c r="V13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:85" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:85" x14ac:dyDescent="0.3">
@@ -1215,6 +1240,375 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
+    <row r="34" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="1"/>
+    </row>
+    <row r="38" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+    </row>
+    <row r="40" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+    </row>
+    <row r="42" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+    </row>
+    <row r="45" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="1"/>
+    </row>
+    <row r="47" spans="2:59" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
